--- a/StatusUpdate.xlsx
+++ b/StatusUpdate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Resource</t>
   </si>
@@ -100,12 +100,188 @@
 Will start working on Service Level performance page in UI</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 1. Installed VS 2017 and created Web API application using .Net core with Entity Framework
+2. DB insertion for SoW and Supplier tables from excel sheet to fetch data using entity framework.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In-Progress:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Will start work on Web API functionality to fetch the data using Data Access layer structure.</t>
+    </r>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Due to machine issue, CCD team changed the machine and Visual Studio 2015 and SQL server installation completed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on:
+I started working on Application tab and following functionality are completed
+Auto Complete for Application, Contract Id and Service line using AngularJS2 and VS 2015.
+</t>
+  </si>
+  <si>
+    <t>There were discrepancy in the database schema as it was developed based on the old excel sheet template, but now we have to work based on the new excel sheet, so I discussed with Supraja and I am going through the new changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed: Restored DB back up file in local machine and started working on Stored Procedure creation.
+Insert, update and delete stored procedures are completed from SoW table
+In Progress: Need to test stored procedure and will start other stored procedure creation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloned project from GitHub and understanding project structure. </t>
+  </si>
+  <si>
+    <t>Working on SLP screen</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Following up with CCD team to install GitHub and VS 2017. Once installation completed I will start work Service tab functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS 2017 installation completed and clone the latest code from GitHub.
+In Progress: Will integrate the Auto Complete functionality in Application tab to VS 2017. Then need to start work on Find button functionality.
+</t>
+  </si>
+  <si>
+    <t>Will start work on Web API functionality to fetch the data using Data Access layer structure.</t>
+  </si>
+  <si>
+    <t>Currently I am analyzing the excel sheet data and schema and preparing data for few columns which are required for insertion but not present in excel sheet, since there were changes in the old templates and the new one.</t>
+  </si>
+  <si>
+    <t>Need to start work on SoW tab. Now I got the basic idea of app module and component. Github extension installation is pending because I don’t have admin rights CCD team is not giving rights even after DM approval. Discussion is going on. As of now I raised AHD for GitHub extension installation that will take 1-2 days</t>
+  </si>
+  <si>
+    <t>Making modifications in the Database schema based on the new Excel Sheet and prepared final data in the excel sheet based on the different constraints that needs to be inserted in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on-  Installed Github extension for VS. Also got admin rights.
+In Progress- Started working on SoW tab UI. Today I worked on CSS and Angular 2 component flow. Sent separate mail to Supraja regarding few doubts. 
+</t>
+  </si>
+  <si>
+    <t>Worked on Autocomplete integration.</t>
+  </si>
+  <si>
+    <t>Autocomplete functionality integrated and search functionality implemented within GitHub solution .</t>
+  </si>
+  <si>
+    <t>Created and tested SP for SoW insert and update. Working fine.</t>
+  </si>
+  <si>
+    <t>Started working on SoW UI. Need to discuss few things related to bootstrap css , github and project requirement.</t>
+  </si>
+  <si>
+    <t>Created service Tab page Type script,html files under Model &amp; service folder and also created service json file with required fields. Now service line page is loaded successfully in Crest application.   </t>
+  </si>
+  <si>
+    <t>To get the data from Supplier table using Entity Framework with Repository and Interface classes.</t>
+  </si>
+  <si>
+    <t>Implemented routing for SLP page</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Sent SP code to Supraja and given answers to her questions. I will change the SP code based on supraja’s reply.</t>
+  </si>
+  <si>
+    <t> I have fixed css loading issue.</t>
+  </si>
+  <si>
+    <t>Yesterday doubts are clarified by Mahender. Will proceed further.</t>
+  </si>
+  <si>
+    <t>I have completed Data binding in service tab in grid page from the service (mock data).    </t>
+  </si>
+  <si>
+    <t>In Progress. Making changes in schema.</t>
+  </si>
+  <si>
+    <t>I have started work on auto complete search functionality to perform the search criteria in UI-service tab and the work in progressing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have created GitHub repository and pushed the latest updated UI-Application design. </t>
+  </si>
+  <si>
+    <t>Changed the SP code as per supraja's suggestions.waiting for Kumar mail related to updated db schema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schema updated and January data inserted in SOW, Service &amp;  Application Table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going through typescript code and flow. </t>
+  </si>
+  <si>
+    <t>Designing SLP UI page</t>
+  </si>
+  <si>
+    <t>Doing analysis on which grid will suit SLP page requirement</t>
+  </si>
+  <si>
+    <t>Working on to integrate handson table in SLP page</t>
+  </si>
+  <si>
+    <t>I have completed auto complete functionality in service tab.Now search criteria is working fine.</t>
+  </si>
+  <si>
+    <t>Working on application add functionality under UI-Application Tab.</t>
+  </si>
+  <si>
+    <t>Understood the whole flow of data. Started working on code.</t>
+  </si>
+  <si>
+    <t>Database Schema completed and Insertion of data completed for January.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +304,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +349,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -166,11 +385,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -180,6 +500,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,51 +841,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="17">
         <v>42852</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="18">
         <v>42853</v>
       </c>
       <c r="D1" s="3">
         <v>42856</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <v>42857</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="7">
         <v>42858</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="7">
         <v>42859</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="7">
         <v>42860</v>
       </c>
       <c r="I1" s="3">
         <v>42861</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="27">
         <v>42862</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="7">
         <v>42863</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="28">
         <v>42864</v>
       </c>
       <c r="M1" s="3">
@@ -530,20 +915,27 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -552,21 +944,33 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="29"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -575,21 +979,35 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="29"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -598,21 +1016,26 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -621,21 +1044,35 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="29"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -644,21 +1081,32 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -667,21 +1115,35 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="29"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -691,22 +1153,31 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -716,6 +1187,10 @@
       <c r="S9" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="I2:J9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
